--- a/data/processed/01_stage_1/SFR01_2014_NT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_NT.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table_1a.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="table_1b_by_gender.csv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>15 year olds</t>
   </si>
@@ -64,13 +65,91 @@
   </si>
   <si>
     <t>any-passes</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>no_allschools_2009</t>
+  </si>
+  <si>
+    <t>no_allschools_2010</t>
+  </si>
+  <si>
+    <t>no_allschools_2011</t>
+  </si>
+  <si>
+    <t>no_allschools_2012</t>
+  </si>
+  <si>
+    <t>no_statefunded_2009</t>
+  </si>
+  <si>
+    <t>no_statefunded_2010</t>
+  </si>
+  <si>
+    <t>no_statefunded_2011</t>
+  </si>
+  <si>
+    <t>no_statefunded_2012</t>
+  </si>
+  <si>
+    <t>perc_entered_allschools_2009</t>
+  </si>
+  <si>
+    <t>perc_entered_allschools_2010</t>
+  </si>
+  <si>
+    <t>perc_entered_allschools_2011</t>
+  </si>
+  <si>
+    <t>perc_entered_allschools_2012</t>
+  </si>
+  <si>
+    <t>perc_entered_statefunded_2009</t>
+  </si>
+  <si>
+    <t>perc_entered_statefunded_2010</t>
+  </si>
+  <si>
+    <t>perc_entered_statefunded_2011</t>
+  </si>
+  <si>
+    <t>perc_entered_statefunded_2012</t>
+  </si>
+  <si>
+    <t>perc_achieved_allschools_2009</t>
+  </si>
+  <si>
+    <t>perc_achieved_allschools_2010</t>
+  </si>
+  <si>
+    <t>perc_achieved_allschools_2011</t>
+  </si>
+  <si>
+    <t>perc_achieved_allschools_2012</t>
+  </si>
+  <si>
+    <t>perc_achieved_statefunded_2009</t>
+  </si>
+  <si>
+    <t>perc_achieved_statefunded_2010</t>
+  </si>
+  <si>
+    <t>perc_achieved_statefunded_2011</t>
+  </si>
+  <si>
+    <t>perc_achieved_statefunded_2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +164,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -160,45 +251,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -241,8 +386,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="90">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -260,6 +424,33 @@
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -277,6 +468,33 @@
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
@@ -609,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1529,4 +1747,268 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="30">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="13">
+        <v>328005</v>
+      </c>
+      <c r="C2" s="13">
+        <v>321415</v>
+      </c>
+      <c r="D2" s="13">
+        <v>318599</v>
+      </c>
+      <c r="E2" s="13">
+        <v>323971</v>
+      </c>
+      <c r="F2" s="13">
+        <v>294465</v>
+      </c>
+      <c r="G2" s="13">
+        <v>288885</v>
+      </c>
+      <c r="H2" s="13">
+        <v>286652</v>
+      </c>
+      <c r="I2" s="13">
+        <v>291008</v>
+      </c>
+      <c r="J2" s="18">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K2" s="18">
+        <v>21.4</v>
+      </c>
+      <c r="L2" s="18">
+        <v>22.7</v>
+      </c>
+      <c r="M2" s="13">
+        <v>30.6</v>
+      </c>
+      <c r="N2" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="O2" s="18">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P2" s="18">
+        <v>20.7</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>31.5</v>
+      </c>
+      <c r="R2" s="12">
+        <v>12.8</v>
+      </c>
+      <c r="S2" s="18">
+        <v>14.8</v>
+      </c>
+      <c r="T2" s="18">
+        <v>15.5</v>
+      </c>
+      <c r="U2" s="13">
+        <v>18.3</v>
+      </c>
+      <c r="V2" s="11">
+        <v>12.6</v>
+      </c>
+      <c r="W2" s="18">
+        <v>12.7</v>
+      </c>
+      <c r="X2" s="18">
+        <v>13.3</v>
+      </c>
+      <c r="Y2" s="13">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="13">
+        <v>311258</v>
+      </c>
+      <c r="C3" s="13">
+        <v>305678</v>
+      </c>
+      <c r="D3" s="13">
+        <v>302018</v>
+      </c>
+      <c r="E3" s="13">
+        <v>308705</v>
+      </c>
+      <c r="F3" s="13">
+        <v>283595</v>
+      </c>
+      <c r="G3" s="13">
+        <v>278042</v>
+      </c>
+      <c r="H3" s="13">
+        <v>274656</v>
+      </c>
+      <c r="I3" s="13">
+        <v>280326</v>
+      </c>
+      <c r="J3" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="K3" s="18">
+        <v>26.3</v>
+      </c>
+      <c r="L3" s="18">
+        <v>27.8</v>
+      </c>
+      <c r="M3" s="13">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="N3" s="11">
+        <v>24</v>
+      </c>
+      <c r="O3" s="18">
+        <v>23.9</v>
+      </c>
+      <c r="P3" s="18">
+        <v>25.6</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>39.6</v>
+      </c>
+      <c r="R3" s="12">
+        <v>18.5</v>
+      </c>
+      <c r="S3" s="18">
+        <v>20.6</v>
+      </c>
+      <c r="T3" s="18">
+        <v>21.4</v>
+      </c>
+      <c r="U3" s="13">
+        <v>27.8</v>
+      </c>
+      <c r="V3" s="11">
+        <v>17.7</v>
+      </c>
+      <c r="W3" s="18">
+        <v>18.2</v>
+      </c>
+      <c r="X3" s="18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/processed/01_stage_1/SFR01_2014_NT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_NT.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="table_1a.csv" sheetId="1" r:id="rId1"/>
     <sheet name="table_1b_by_gender.csv" sheetId="2" r:id="rId2"/>
+    <sheet name="table_1b_by_subject.csv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>15 year olds</t>
   </si>
@@ -143,13 +144,52 @@
   </si>
   <si>
     <t>perc_achieved_statefunded_2012</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Sciences - Not triple science</t>
+  </si>
+  <si>
+    <r>
+      <t>Sciences - triple science</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <t>History or Geography</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +199,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -194,6 +239,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -251,162 +309,234 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="130">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -451,6 +581,26 @@
     <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -495,6 +645,26 @@
     <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
@@ -835,7 +1005,7 @@
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="15"/>
+    <col min="3" max="8" width="10.83203125" style="17"/>
     <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -846,25 +1016,25 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -875,22 +1045,22 @@
       <c r="B2" s="3">
         <v>1995</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>594035</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="14">
         <v>44.5</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>35.200000000000003</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>86.1</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="14">
         <v>83.4</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="14">
         <v>92.2</v>
       </c>
       <c r="I2" t="s">
@@ -904,22 +1074,22 @@
       <c r="B3" s="3">
         <v>1996</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>586766</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>45.1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>35.6</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <v>86.4</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="14">
         <v>83.9</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="14">
         <v>92.3</v>
       </c>
     </row>
@@ -930,22 +1100,22 @@
       <c r="B4" s="3">
         <v>1997</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>575210</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <v>46.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>37</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>87.5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="14">
         <v>83.8</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="14">
         <v>93.4</v>
       </c>
     </row>
@@ -956,22 +1126,22 @@
       <c r="B5" s="3">
         <v>1998</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>580972</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>47.9</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>38.6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <v>88.5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="13">
         <v>85.8</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="13">
         <v>94</v>
       </c>
     </row>
@@ -979,25 +1149,25 @@
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>1999</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <v>580393</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <v>49.2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>40</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>88.9</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <v>86.8</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="14">
         <v>94.4</v>
       </c>
     </row>
@@ -1005,25 +1175,25 @@
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>2000</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>603318</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>50</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>40.700000000000003</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <v>88.9</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="14">
         <v>86.9</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="14">
         <v>94.5</v>
       </c>
     </row>
@@ -1031,25 +1201,25 @@
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>2001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <v>606554</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <v>51.6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>42.1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>88.9</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="14">
         <v>87.1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="14">
         <v>94.6</v>
       </c>
     </row>
@@ -1057,25 +1227,25 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>2002</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>622122</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <v>52.9</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>41.9</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="14">
         <v>88.8</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="14">
         <v>86.6</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="14">
         <v>94.8</v>
       </c>
     </row>
@@ -1083,25 +1253,25 @@
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>2003</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <v>643560</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <v>53.7</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>42.6</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <v>88.8</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="14">
         <v>86.7</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="14">
         <v>95.9</v>
       </c>
       <c r="I10" t="s">
@@ -1112,25 +1282,25 @@
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>2004</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <v>636771</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <v>56.3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>44.3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <v>89</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="14">
         <v>86.9</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="14">
         <v>96.4</v>
       </c>
     </row>
@@ -1138,25 +1308,25 @@
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>2005</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="15">
         <v>648942</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <v>58.5</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="19">
         <v>45.3</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="15">
         <v>89.4</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="15">
         <v>86.8</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="15">
         <v>96.7</v>
       </c>
     </row>
@@ -1164,25 +1334,25 @@
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>2006</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="15">
         <v>656396</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="15">
         <v>60.9</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="19">
         <v>46</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="15">
         <v>90</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="15">
         <v>86.4</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="15">
         <v>97.3</v>
       </c>
     </row>
@@ -1190,207 +1360,207 @@
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>2007</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <v>653808</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="14">
         <v>64.8</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <v>47.3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>90.8</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="14">
         <v>86.7</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="14">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>2004</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="15">
         <v>636119</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="15">
         <v>56.8</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="15">
         <v>44.7</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="15">
         <v>89.9</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="15">
         <v>87.6</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="6">
         <v>2005</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="15">
         <v>648833</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="15">
         <v>59</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="15">
         <v>45.6</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <v>90.1</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="15">
         <v>87.4</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <v>97.3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>2006</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="15">
         <v>655146</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="15">
         <v>61.4</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="15">
         <v>46.3</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="15">
         <v>90.9</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <v>87.1</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>2007</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="15">
         <v>653083</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="15">
         <v>65.3</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="15">
         <v>47.6</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="15">
         <v>91.6</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="15">
         <v>87.4</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="15">
         <v>98.6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>2008</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="15">
         <v>634496</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="15">
         <v>70</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="15">
         <v>49.8</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="15">
         <v>92.3</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="15">
         <v>88.3</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <v>98.9</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>2009</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="16">
         <v>639263</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="16">
         <v>75.3</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="16">
         <v>53.4</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="16">
         <v>92.8</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="16">
         <v>88.7</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="16">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>2009</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="15">
         <v>639263</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="15">
         <v>75.400000000000006</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="15">
         <v>53.5</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="15">
         <v>92.9</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="15">
         <v>88.8</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="15">
         <v>99.1</v>
       </c>
       <c r="I21" t="s">
@@ -1398,262 +1568,262 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>2010</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="15">
         <v>627093</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="15">
         <v>79.599999999999994</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="15">
         <v>59</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="15">
         <v>93.6</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="15">
         <v>92.2</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="15">
         <v>99.3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>2011</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="15">
         <v>620617</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="15">
         <v>59.4</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="15">
         <v>94.1</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="15">
         <v>92.5</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="15">
         <v>99.6</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>2012</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="15">
         <v>632676</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="15">
         <v>81.8</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="15">
         <v>59.2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="15">
         <v>94.3</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="15">
         <v>90.5</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="15">
         <v>99.6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>2004</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="15">
         <v>584170</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="15">
         <v>54.9</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="15">
         <v>42.5</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="15">
         <v>90.3</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="15">
         <v>88.5</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="15">
         <v>97.3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>2005</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="15">
         <v>594134</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="15">
         <v>57.3</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="15">
         <v>44</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="15">
         <v>90.8</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="15">
         <v>88.8</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="15">
         <v>97.8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="6">
         <v>2006</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="15">
         <v>600664</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="15">
         <v>59.9</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="15">
         <v>45.8</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="15">
         <v>91.5</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="15">
         <v>89.6</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="15">
         <v>98.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="6">
         <v>2007</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="15">
         <v>598102</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="15">
         <v>64.400000000000006</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="15">
         <v>48.2</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="15">
         <v>92.4</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="15">
         <v>90.9</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="15">
         <v>98.3</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="6">
         <v>2008</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="15">
         <v>578841</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="15">
         <v>69.8</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="15">
         <v>50.7</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="15">
         <v>93.5</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="15">
         <v>92</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="15">
         <v>98.7</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>2009</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="16">
         <v>578060</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="16">
         <v>76.099999999999994</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="16">
         <v>55.1</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="16">
         <v>94.7</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="16">
         <v>93.3</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="16">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="6">
         <v>2009</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="15">
         <v>578060</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="15">
         <v>76.099999999999994</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="15">
         <v>55.1</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="15">
         <v>94.7</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="15">
         <v>93.3</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="15">
         <v>99</v>
       </c>
       <c r="I31" t="s">
@@ -1661,80 +1831,80 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>2010</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="15">
         <v>566927</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="15">
         <v>80.5</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="15">
         <v>58.2</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="15">
         <v>95.2</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="15">
         <v>93.9</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="15">
         <v>99.2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="6">
         <v>2011</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="15">
         <v>561308</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="15">
         <v>83</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="15">
         <v>58.8</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="15">
         <v>95.7</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="15">
         <v>94.2</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="15">
         <v>99.3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>2012</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="15">
         <v>571334</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="15">
         <v>82.9</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="15">
         <v>60.6</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="15">
         <v>95.8</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="15">
         <v>94.2</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="15">
         <v>99.3</v>
       </c>
     </row>
@@ -1753,254 +1923,660 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="30">
+      <c r="A1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15">
+        <v>328005</v>
+      </c>
+      <c r="C2" s="15">
+        <v>321415</v>
+      </c>
+      <c r="D2" s="15">
+        <v>318599</v>
+      </c>
+      <c r="E2" s="15">
+        <v>323971</v>
+      </c>
+      <c r="F2" s="15">
+        <v>294465</v>
+      </c>
+      <c r="G2" s="15">
+        <v>288885</v>
+      </c>
+      <c r="H2" s="15">
+        <v>286652</v>
+      </c>
+      <c r="I2" s="15">
+        <v>291008</v>
+      </c>
+      <c r="J2" s="20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K2" s="20">
+        <v>21.4</v>
+      </c>
+      <c r="L2" s="20">
+        <v>22.7</v>
+      </c>
+      <c r="M2" s="15">
+        <v>30.6</v>
+      </c>
+      <c r="N2" s="13">
+        <v>19.8</v>
+      </c>
+      <c r="O2" s="20">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="P2" s="20">
+        <v>20.7</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="R2" s="14">
+        <v>12.8</v>
+      </c>
+      <c r="S2" s="20">
+        <v>14.8</v>
+      </c>
+      <c r="T2" s="20">
+        <v>15.5</v>
+      </c>
+      <c r="U2" s="15">
+        <v>18.3</v>
+      </c>
+      <c r="V2" s="13">
+        <v>12.6</v>
+      </c>
+      <c r="W2" s="20">
+        <v>12.7</v>
+      </c>
+      <c r="X2" s="20">
+        <v>13.3</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="15">
+        <v>311258</v>
+      </c>
+      <c r="C3" s="15">
+        <v>305678</v>
+      </c>
+      <c r="D3" s="15">
+        <v>302018</v>
+      </c>
+      <c r="E3" s="15">
+        <v>308705</v>
+      </c>
+      <c r="F3" s="15">
+        <v>283595</v>
+      </c>
+      <c r="G3" s="15">
+        <v>278042</v>
+      </c>
+      <c r="H3" s="15">
+        <v>274656</v>
+      </c>
+      <c r="I3" s="15">
+        <v>280326</v>
+      </c>
+      <c r="J3" s="20">
+        <v>24.5</v>
+      </c>
+      <c r="K3" s="20">
+        <v>26.3</v>
+      </c>
+      <c r="L3" s="20">
+        <v>27.8</v>
+      </c>
+      <c r="M3" s="15">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="N3" s="13">
+        <v>24</v>
+      </c>
+      <c r="O3" s="20">
+        <v>23.9</v>
+      </c>
+      <c r="P3" s="20">
+        <v>25.6</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>39.6</v>
+      </c>
+      <c r="R3" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="S3" s="20">
+        <v>20.6</v>
+      </c>
+      <c r="T3" s="20">
+        <v>21.4</v>
+      </c>
+      <c r="U3" s="15">
+        <v>27.8</v>
+      </c>
+      <c r="V3" s="13">
+        <v>17.7</v>
+      </c>
+      <c r="W3" s="20">
+        <v>18.2</v>
+      </c>
+      <c r="X3" s="20">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>24</v>
+    <row r="1" spans="1:17" ht="30">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="13">
-        <v>328005</v>
-      </c>
-      <c r="C2" s="13">
-        <v>321415</v>
-      </c>
-      <c r="D2" s="13">
-        <v>318599</v>
-      </c>
-      <c r="E2" s="13">
-        <v>323971</v>
-      </c>
-      <c r="F2" s="13">
-        <v>294465</v>
-      </c>
-      <c r="G2" s="13">
-        <v>288885</v>
-      </c>
-      <c r="H2" s="13">
-        <v>286652</v>
-      </c>
-      <c r="I2" s="13">
-        <v>291008</v>
-      </c>
-      <c r="J2" s="18">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="K2" s="18">
-        <v>21.4</v>
-      </c>
-      <c r="L2" s="18">
-        <v>22.7</v>
-      </c>
-      <c r="M2" s="13">
-        <v>30.6</v>
-      </c>
-      <c r="N2" s="11">
-        <v>19.8</v>
-      </c>
-      <c r="O2" s="18">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="P2" s="18">
-        <v>20.7</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>31.5</v>
-      </c>
-      <c r="R2" s="12">
-        <v>12.8</v>
-      </c>
-      <c r="S2" s="18">
-        <v>14.8</v>
-      </c>
-      <c r="T2" s="18">
-        <v>15.5</v>
-      </c>
-      <c r="U2" s="13">
-        <v>18.3</v>
-      </c>
-      <c r="V2" s="11">
-        <v>12.6</v>
-      </c>
-      <c r="W2" s="18">
-        <v>12.7</v>
-      </c>
-      <c r="X2" s="18">
-        <v>13.3</v>
-      </c>
-      <c r="Y2" s="13">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13">
-        <v>311258</v>
-      </c>
-      <c r="C3" s="13">
-        <v>305678</v>
-      </c>
-      <c r="D3" s="13">
-        <v>302018</v>
-      </c>
-      <c r="E3" s="13">
-        <v>308705</v>
-      </c>
-      <c r="F3" s="13">
-        <v>283595</v>
-      </c>
-      <c r="G3" s="13">
-        <v>278042</v>
-      </c>
-      <c r="H3" s="13">
-        <v>274656</v>
-      </c>
-      <c r="I3" s="13">
-        <v>280326</v>
-      </c>
-      <c r="J3" s="18">
-        <v>24.5</v>
-      </c>
-      <c r="K3" s="18">
-        <v>26.3</v>
-      </c>
-      <c r="L3" s="18">
-        <v>27.8</v>
-      </c>
-      <c r="M3" s="13">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="N3" s="11">
-        <v>24</v>
-      </c>
-      <c r="O3" s="18">
-        <v>23.9</v>
-      </c>
-      <c r="P3" s="18">
-        <v>25.6</v>
-      </c>
-      <c r="Q3" s="13">
+    <row r="2" spans="1:17">
+      <c r="A2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4">
+        <v>94.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>95</v>
+      </c>
+      <c r="D2" s="21">
+        <v>94.9</v>
+      </c>
+      <c r="E2" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>96.3</v>
+      </c>
+      <c r="H2" s="21">
+        <v>96.4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>96.6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>66.2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="L2" s="21">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="M2" s="7">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="N2" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="O2" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="P2" s="21">
+        <v>66.7</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
+        <v>93.1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="D3" s="21">
+        <v>96.7</v>
+      </c>
+      <c r="E3" s="7">
+        <v>96.8</v>
+      </c>
+      <c r="F3" s="4">
+        <v>97</v>
+      </c>
+      <c r="G3" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="H3" s="21">
+        <v>97.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>97.6</v>
+      </c>
+      <c r="J3" s="4">
+        <v>60.6</v>
+      </c>
+      <c r="K3" s="4">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="L3" s="21">
+        <v>69.8</v>
+      </c>
+      <c r="M3" s="7">
+        <v>71.5</v>
+      </c>
+      <c r="N3" s="4">
+        <v>62.4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>65.2</v>
+      </c>
+      <c r="P3" s="21">
+        <v>69.3</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44.900000000000006</v>
+      </c>
+      <c r="C4" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="D4" s="4">
         <v>39.6</v>
       </c>
-      <c r="R3" s="12">
-        <v>18.5</v>
-      </c>
-      <c r="S3" s="18">
-        <v>20.6</v>
-      </c>
-      <c r="T3" s="18">
-        <v>21.4</v>
-      </c>
-      <c r="U3" s="13">
-        <v>27.8</v>
-      </c>
-      <c r="V3" s="11">
-        <v>17.7</v>
-      </c>
-      <c r="W3" s="18">
-        <v>18.2</v>
-      </c>
-      <c r="X3" s="18">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="Y3" s="13">
+      <c r="E4" s="4">
+        <v>39.899999999999991</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I4" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>48.400000000000006</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45.500000000000007</v>
+      </c>
+      <c r="L4" s="4">
+        <v>42.500000000000007</v>
+      </c>
+      <c r="M4" s="4">
+        <v>28.300000000000004</v>
+      </c>
+      <c r="N4" s="4">
+        <v>44.599999999999994</v>
+      </c>
+      <c r="O4" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="P4" s="4">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="25">
+        <v>17.3</v>
+      </c>
+      <c r="C5" s="25">
+        <v>21.5</v>
+      </c>
+      <c r="D5" s="26">
+        <v>24.6</v>
+      </c>
+      <c r="E5" s="27">
+        <v>25.7</v>
+      </c>
+      <c r="F5" s="25">
+        <v>19.2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>23.8</v>
+      </c>
+      <c r="H5" s="26">
+        <v>27.2</v>
+      </c>
+      <c r="I5" s="27">
+        <v>28.4</v>
+      </c>
+      <c r="J5" s="25">
+        <v>25.3</v>
+      </c>
+      <c r="K5" s="25">
+        <v>31.4</v>
+      </c>
+      <c r="L5" s="26">
+        <v>34.4</v>
+      </c>
+      <c r="M5" s="27">
+        <v>45.9</v>
+      </c>
+      <c r="N5" s="25">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="13"/>
+      <c r="O5" s="25">
+        <v>35</v>
+      </c>
+      <c r="P5" s="26">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>48.9</v>
+      </c>
+      <c r="D6" s="21">
+        <v>50.4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>60.4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>47.9</v>
+      </c>
+      <c r="H6" s="21">
+        <v>49.3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60.2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="K6" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="L6" s="21">
+        <v>70.7</v>
+      </c>
+      <c r="M6" s="7">
+        <v>69.5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>67.7</v>
+      </c>
+      <c r="P6" s="21">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42.6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>40.9</v>
+      </c>
+      <c r="D7" s="21">
+        <v>41.1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4">
+        <v>38.5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>38.9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>47.6</v>
+      </c>
+      <c r="J7" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="K7" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="L7" s="21">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="M7" s="7">
+        <v>72</v>
+      </c>
+      <c r="N7" s="4">
+        <v>69.3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="P7" s="21">
+        <v>70.7</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/processed/01_stage_1/SFR01_2014_NT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_NT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="table_1a.csv" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Pupils at end Key Stage 4 in State-funded schools</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Percentages from 1996/97 include GCSEs and GNVQs.</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1011,31 +1011,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1064,7 +1064,7 @@
         <v>92.2</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1275,7 +1275,7 @@
         <v>95.9</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1564,7 +1564,7 @@
         <v>99.1</v>
       </c>
       <c r="I21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1827,7 +1827,7 @@
         <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1923,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1932,84 +1932,84 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30">
       <c r="A1" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="15">
         <v>328005</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="15">
         <v>311258</v>
@@ -2198,60 +2198,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>94.4</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
         <v>93.1</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4">
         <v>44.900000000000006</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="25">
         <v>17.3</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4">
         <v>48.9</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4">
         <v>42.6</v>

--- a/data/processed/01_stage_1/SFR01_2014_NT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_NT.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="table_1a.csv" sheetId="1" r:id="rId1"/>
     <sheet name="table_1b_by_gender.csv" sheetId="2" r:id="rId2"/>
     <sheet name="table_1b_by_subject.csv" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,11 +22,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
   <si>
     <t>15 year olds</t>
   </si>
   <si>
+    <t>2007/08</t>
+  </si>
+  <si>
+    <t>2008/09</t>
+  </si>
+  <si>
+    <t>2009/10</t>
+  </si>
+  <si>
+    <t>2011/12</t>
+  </si>
+  <si>
+    <t>2012/13</t>
+  </si>
+  <si>
     <t>Pupils at end Key Stage 4</t>
   </si>
   <si>
@@ -65,12 +81,18 @@
     <t>any-passes</t>
   </si>
   <si>
+    <t>2010/11</t>
+  </si>
+  <si>
     <t>Boys</t>
   </si>
   <si>
     <t>Girls</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>no_allschools_2009</t>
   </si>
   <si>
@@ -155,41 +177,101 @@
     <t>Sciences - Not triple science</t>
   </si>
   <si>
+    <t>History or Geography</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Sciences - triple science</t>
+  </si>
+  <si>
+    <t>Table 1c: Percentage of pupils making expected progress in English and in mathematics between key stage 2 and key stage 4 by gender</t>
+  </si>
+  <si>
     <r>
-      <t>Sciences - triple science</t>
+      <t>Years: 2007/08 to 2012/13 (Revised)</t>
     </r>
     <r>
       <rPr>
-        <i/>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Coverage: England</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: These figures represent the mean average for pupils making expected progress.</t>
+  </si>
+  <si>
+    <r>
+      <t>State-funded mainstream schools</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>3</t>
     </r>
   </si>
   <si>
-    <t>History or Geography</t>
-  </si>
-  <si>
-    <t>Languages</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>notes</t>
+    <t>Number of eligible pupils</t>
+  </si>
+  <si>
+    <t>Percentage making expected level of progress</t>
+  </si>
+  <si>
+    <r>
+      <t>State-funded schools</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +281,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -214,6 +309,12 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -246,23 +347,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -308,233 +408,333 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="130">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -997,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1011,31 +1211,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1064,7 +1264,7 @@
         <v>92.2</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1275,7 +1475,7 @@
         <v>95.9</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1384,7 +1584,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="6">
         <v>2004</v>
@@ -1410,7 +1610,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" s="6">
         <v>2005</v>
@@ -1436,7 +1636,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="6">
         <v>2006</v>
@@ -1462,7 +1662,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6">
         <v>2007</v>
@@ -1488,7 +1688,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>2008</v>
@@ -1514,7 +1714,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" s="9">
         <v>2009</v>
@@ -1540,7 +1740,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" s="6">
         <v>2009</v>
@@ -1564,12 +1764,12 @@
         <v>99.1</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" s="6">
         <v>2010</v>
@@ -1595,7 +1795,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" s="6">
         <v>2011</v>
@@ -1621,7 +1821,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6">
         <v>2012</v>
@@ -1647,7 +1847,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B25" s="6">
         <v>2004</v>
@@ -1673,7 +1873,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B26" s="6">
         <v>2005</v>
@@ -1699,7 +1899,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B27" s="6">
         <v>2006</v>
@@ -1725,7 +1925,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B28" s="6">
         <v>2007</v>
@@ -1751,7 +1951,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6">
         <v>2008</v>
@@ -1777,7 +1977,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B30" s="9">
         <v>2009</v>
@@ -1803,7 +2003,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B31" s="6">
         <v>2009</v>
@@ -1827,12 +2027,12 @@
         <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B32" s="6">
         <v>2010</v>
@@ -1858,7 +2058,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B33" s="6">
         <v>2011</v>
@@ -1884,7 +2084,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34" s="6">
         <v>2012</v>
@@ -1931,85 +2131,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30">
-      <c r="A1" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="34" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y1" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="37" t="s">
-        <v>14</v>
       </c>
       <c r="B2" s="15">
         <v>328005</v>
@@ -2085,8 +2285,8 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" s="37" t="s">
-        <v>15</v>
+      <c r="A3" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="15">
         <v>311258</v>
@@ -2162,14 +2362,14 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="15"/>
     </row>
   </sheetData>
@@ -2188,7 +2388,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2197,61 +2397,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30">
-      <c r="A1" t="s">
+      <c r="A1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>35</v>
-      </c>
       <c r="N1" s="22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="23" t="s">
-        <v>40</v>
+      <c r="A2" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="4">
         <v>94.4</v>
@@ -2303,8 +2503,8 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="23" t="s">
-        <v>41</v>
+      <c r="A3" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="4">
         <v>93.1</v>
@@ -2356,8 +2556,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="23" t="s">
-        <v>43</v>
+      <c r="A4" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="4">
         <v>44.900000000000006</v>
@@ -2409,61 +2609,61 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="25">
+      <c r="A5" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="23">
         <v>17.3</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>21.5</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>24.6</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>25.7</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="23">
         <v>19.2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="23">
         <v>23.8</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>27.2</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="25">
         <v>28.4</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>25.3</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="23">
         <v>31.4</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="24">
         <v>34.4</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="25">
         <v>45.9</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="23">
         <v>27.5</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5" s="23">
         <v>35</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="24">
         <v>38.200000000000003</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="Q5" s="25">
         <v>51.4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="28" t="s">
-        <v>45</v>
+      <c r="A6" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="4">
         <v>48.9</v>
@@ -2515,8 +2715,8 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
+      <c r="A7" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="B7" s="4">
         <v>42.6</v>
@@ -2568,15 +2768,15 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="30"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2587,4 +2787,912 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="42"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="45"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="42"/>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="53"/>
+    </row>
+    <row r="9" spans="1:14" ht="40">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="57">
+        <v>290719</v>
+      </c>
+      <c r="D10" s="58">
+        <v>58.8</v>
+      </c>
+      <c r="E10" s="59">
+        <v>280252</v>
+      </c>
+      <c r="F10" s="58">
+        <v>60.6</v>
+      </c>
+      <c r="G10" s="60">
+        <v>280409</v>
+      </c>
+      <c r="H10" s="61">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="I10" s="60">
+        <v>269235</v>
+      </c>
+      <c r="J10" s="61">
+        <v>68.2</v>
+      </c>
+      <c r="K10" s="62">
+        <v>268750</v>
+      </c>
+      <c r="L10" s="61">
+        <v>63.1</v>
+      </c>
+      <c r="M10" s="60">
+        <v>273722</v>
+      </c>
+      <c r="N10" s="61">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="57">
+        <v>285094</v>
+      </c>
+      <c r="D11" s="58">
+        <v>70.3</v>
+      </c>
+      <c r="E11" s="57">
+        <v>276000</v>
+      </c>
+      <c r="F11" s="58">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G11" s="60">
+        <v>275855</v>
+      </c>
+      <c r="H11" s="61">
+        <v>75.8</v>
+      </c>
+      <c r="I11" s="60">
+        <v>266292</v>
+      </c>
+      <c r="J11" s="61">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K11" s="62">
+        <v>263703</v>
+      </c>
+      <c r="L11" s="61">
+        <v>75.3</v>
+      </c>
+      <c r="M11" s="60">
+        <v>270146</v>
+      </c>
+      <c r="N11" s="61">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="57">
+        <v>575813</v>
+      </c>
+      <c r="D12" s="58">
+        <v>64.5</v>
+      </c>
+      <c r="E12" s="57">
+        <v>556252</v>
+      </c>
+      <c r="F12" s="58">
+        <v>65.7</v>
+      </c>
+      <c r="G12" s="60">
+        <v>556264</v>
+      </c>
+      <c r="H12" s="61">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I12" s="60">
+        <v>535527</v>
+      </c>
+      <c r="J12" s="61">
+        <v>73</v>
+      </c>
+      <c r="K12" s="62">
+        <v>532453</v>
+      </c>
+      <c r="L12" s="61">
+        <v>69.2</v>
+      </c>
+      <c r="M12" s="60">
+        <v>543868</v>
+      </c>
+      <c r="N12" s="61">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="61"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="57">
+        <v>291645</v>
+      </c>
+      <c r="D14" s="58">
+        <v>55.1</v>
+      </c>
+      <c r="E14" s="59">
+        <v>281561</v>
+      </c>
+      <c r="F14" s="58">
+        <v>58.1</v>
+      </c>
+      <c r="G14" s="60">
+        <v>281685</v>
+      </c>
+      <c r="H14" s="61">
+        <v>61.8</v>
+      </c>
+      <c r="I14" s="60">
+        <v>271372</v>
+      </c>
+      <c r="J14" s="61">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="K14" s="62">
+        <v>275846</v>
+      </c>
+      <c r="L14" s="61">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="M14" s="60">
+        <v>275702</v>
+      </c>
+      <c r="N14" s="61">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="57">
+        <v>284998</v>
+      </c>
+      <c r="D15" s="58">
+        <v>59.4</v>
+      </c>
+      <c r="E15" s="57">
+        <v>276113</v>
+      </c>
+      <c r="F15" s="58">
+        <v>59.6</v>
+      </c>
+      <c r="G15" s="60">
+        <v>275966</v>
+      </c>
+      <c r="H15" s="61">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="I15" s="60">
+        <v>265700</v>
+      </c>
+      <c r="J15" s="61">
+        <v>67.3</v>
+      </c>
+      <c r="K15" s="62">
+        <v>270434</v>
+      </c>
+      <c r="L15" s="61">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="M15" s="60">
+        <v>270336</v>
+      </c>
+      <c r="N15" s="61">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="66">
+        <v>576643</v>
+      </c>
+      <c r="D16" s="67">
+        <v>57.2</v>
+      </c>
+      <c r="E16" s="66">
+        <v>557674</v>
+      </c>
+      <c r="F16" s="67">
+        <v>58.8</v>
+      </c>
+      <c r="G16" s="59">
+        <v>557651</v>
+      </c>
+      <c r="H16" s="68">
+        <v>62.9</v>
+      </c>
+      <c r="I16" s="60">
+        <v>537072</v>
+      </c>
+      <c r="J16" s="61">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K16" s="62">
+        <v>533969</v>
+      </c>
+      <c r="L16" s="61">
+        <v>69.8</v>
+      </c>
+      <c r="M16" s="60">
+        <v>546038</v>
+      </c>
+      <c r="N16" s="61">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="70"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+    </row>
+    <row r="19" spans="1:14" ht="16" thickBot="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="53"/>
+    </row>
+    <row r="21" spans="1:14" ht="40">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="57">
+        <v>297798</v>
+      </c>
+      <c r="D22" s="58">
+        <v>57.5</v>
+      </c>
+      <c r="E22" s="66">
+        <v>287370</v>
+      </c>
+      <c r="F22" s="58">
+        <v>59.2</v>
+      </c>
+      <c r="G22" s="60">
+        <v>287387</v>
+      </c>
+      <c r="H22" s="61">
+        <v>63.6</v>
+      </c>
+      <c r="I22" s="60">
+        <v>275865</v>
+      </c>
+      <c r="J22" s="61">
+        <v>66.7</v>
+      </c>
+      <c r="K22" s="62">
+        <v>275615</v>
+      </c>
+      <c r="L22" s="61">
+        <v>61.7</v>
+      </c>
+      <c r="M22" s="60">
+        <v>281024</v>
+      </c>
+      <c r="N22" s="58">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="57">
+        <v>287920</v>
+      </c>
+      <c r="D23" s="58">
+        <v>69.7</v>
+      </c>
+      <c r="E23" s="57">
+        <v>278722</v>
+      </c>
+      <c r="F23" s="58">
+        <v>70.3</v>
+      </c>
+      <c r="G23" s="60">
+        <v>278503</v>
+      </c>
+      <c r="H23" s="61">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I23" s="60">
+        <v>268919</v>
+      </c>
+      <c r="J23" s="61">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="K23" s="62">
+        <v>266348</v>
+      </c>
+      <c r="L23" s="61">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="M23" s="60">
+        <v>272859</v>
+      </c>
+      <c r="N23" s="58">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="57">
+        <v>585718</v>
+      </c>
+      <c r="D24" s="58">
+        <v>63.5</v>
+      </c>
+      <c r="E24" s="57">
+        <v>566092</v>
+      </c>
+      <c r="F24" s="58">
+        <v>64.7</v>
+      </c>
+      <c r="G24" s="60">
+        <v>565890</v>
+      </c>
+      <c r="H24" s="61">
+        <v>69.3</v>
+      </c>
+      <c r="I24" s="60">
+        <v>544784</v>
+      </c>
+      <c r="J24" s="61">
+        <v>71.8</v>
+      </c>
+      <c r="K24" s="62">
+        <v>541963</v>
+      </c>
+      <c r="L24" s="61">
+        <v>68</v>
+      </c>
+      <c r="M24" s="60">
+        <v>553883</v>
+      </c>
+      <c r="N24" s="58">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="58"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="57">
+        <v>298652</v>
+      </c>
+      <c r="D26" s="58">
+        <v>53.9</v>
+      </c>
+      <c r="E26" s="66">
+        <v>288609</v>
+      </c>
+      <c r="F26" s="58">
+        <v>56.8</v>
+      </c>
+      <c r="G26" s="60">
+        <v>288585</v>
+      </c>
+      <c r="H26" s="61">
+        <v>60.5</v>
+      </c>
+      <c r="I26" s="60">
+        <v>277847</v>
+      </c>
+      <c r="J26" s="61">
+        <v>63.1</v>
+      </c>
+      <c r="K26" s="62">
+        <v>277244</v>
+      </c>
+      <c r="L26" s="61">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="M26" s="60">
+        <v>282937</v>
+      </c>
+      <c r="N26" s="58">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="57">
+        <v>287808</v>
+      </c>
+      <c r="D27" s="58">
+        <v>58.8</v>
+      </c>
+      <c r="E27" s="57">
+        <v>278822</v>
+      </c>
+      <c r="F27" s="58">
+        <v>59</v>
+      </c>
+      <c r="G27" s="60">
+        <v>278603</v>
+      </c>
+      <c r="H27" s="61">
+        <v>63.5</v>
+      </c>
+      <c r="I27" s="60">
+        <v>268308</v>
+      </c>
+      <c r="J27" s="61">
+        <v>66.7</v>
+      </c>
+      <c r="K27" s="62">
+        <v>266124</v>
+      </c>
+      <c r="L27" s="61">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M27" s="60">
+        <v>273036</v>
+      </c>
+      <c r="N27" s="58">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="57">
+        <v>586460</v>
+      </c>
+      <c r="D28" s="58">
+        <v>56.3</v>
+      </c>
+      <c r="E28" s="57">
+        <v>567431</v>
+      </c>
+      <c r="F28" s="58">
+        <v>57.9</v>
+      </c>
+      <c r="G28" s="60">
+        <v>567188</v>
+      </c>
+      <c r="H28" s="61">
+        <v>62</v>
+      </c>
+      <c r="I28" s="60">
+        <v>546155</v>
+      </c>
+      <c r="J28" s="61">
+        <v>64.8</v>
+      </c>
+      <c r="K28" s="62">
+        <v>543368</v>
+      </c>
+      <c r="L28" s="61">
+        <v>68.7</v>
+      </c>
+      <c r="M28" s="60">
+        <v>555973</v>
+      </c>
+      <c r="N28" s="58">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/processed/01_stage_1/SFR01_2014_NT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_NT.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="6820" yWindow="0" windowWidth="21880" windowHeight="17480" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="table_1a.csv" sheetId="1" r:id="rId1"/>
     <sheet name="table_1b_by_gender.csv" sheetId="2" r:id="rId2"/>
     <sheet name="table_1b_by_subject.csv" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="table_1c.csv" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,26 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>15 year olds</t>
   </si>
   <si>
-    <t>2007/08</t>
-  </si>
-  <si>
-    <t>2008/09</t>
-  </si>
-  <si>
-    <t>2009/10</t>
-  </si>
-  <si>
-    <t>2011/12</t>
-  </si>
-  <si>
-    <t>2012/13</t>
-  </si>
-  <si>
     <t>Pupils at end Key Stage 4</t>
   </si>
   <si>
@@ -81,18 +66,12 @@
     <t>any-passes</t>
   </si>
   <si>
-    <t>2010/11</t>
-  </si>
-  <si>
     <t>Boys</t>
   </si>
   <si>
     <t>Girls</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>no_allschools_2009</t>
   </si>
   <si>
@@ -192,86 +171,86 @@
     <t>Sciences - triple science</t>
   </si>
   <si>
-    <t>Table 1c: Percentage of pupils making expected progress in English and in mathematics between key stage 2 and key stage 4 by gender</t>
-  </si>
-  <si>
-    <r>
-      <t>Years: 2007/08 to 2012/13 (Revised)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Coverage: England</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>Note: These figures represent the mean average for pupils making expected progress.</t>
-  </si>
-  <si>
-    <r>
-      <t>State-funded mainstream schools</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>Number of eligible pupils</t>
-  </si>
-  <si>
-    <t>Percentage making expected level of progress</t>
-  </si>
-  <si>
-    <r>
-      <t>State-funded schools</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
+    <t>eligible_mainstream_2007</t>
+  </si>
+  <si>
+    <t>perc_progress_mainstream_2007</t>
+  </si>
+  <si>
+    <t>eligible_mainstream_2008</t>
+  </si>
+  <si>
+    <t>perc_progress_mainstream_2008</t>
+  </si>
+  <si>
+    <t>eligible_mainstream_2009</t>
+  </si>
+  <si>
+    <t>perc_progress_mainstream_2009</t>
+  </si>
+  <si>
+    <t>eligible_mainstream_2010</t>
+  </si>
+  <si>
+    <t>perc_progress_mainstream_2010</t>
+  </si>
+  <si>
+    <t>eligible_mainstream_2011</t>
+  </si>
+  <si>
+    <t>perc_progress_mainstream_2011</t>
+  </si>
+  <si>
+    <t>eligible_mainstream_2012</t>
+  </si>
+  <si>
+    <t>perc_progress_mainstream_2012</t>
+  </si>
+  <si>
+    <t>eligible_all_2007</t>
+  </si>
+  <si>
+    <t>perc_progress_all_2007</t>
+  </si>
+  <si>
+    <t>eligible_all_2008</t>
+  </si>
+  <si>
+    <t>perc_progress_all_2008</t>
+  </si>
+  <si>
+    <t>eligible_all_2009</t>
+  </si>
+  <si>
+    <t>perc_progress_all_2009</t>
+  </si>
+  <si>
+    <t>eligible_all_2010</t>
+  </si>
+  <si>
+    <t>perc_progress_all_2010</t>
+  </si>
+  <si>
+    <t>eligible_all_2011</t>
+  </si>
+  <si>
+    <t>perc_progress_all_2011</t>
+  </si>
+  <si>
+    <t>eligible_all_2012</t>
+  </si>
+  <si>
+    <t>perc_progress_all_2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -281,19 +260,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -309,12 +275,6 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -362,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -408,335 +368,308 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="186">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -801,6 +734,34 @@
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -865,6 +826,34 @@
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
@@ -1211,31 +1200,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1264,7 +1253,7 @@
         <v>92.2</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1475,7 +1464,7 @@
         <v>95.9</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1584,7 +1573,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6">
         <v>2004</v>
@@ -1610,7 +1599,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" s="6">
         <v>2005</v>
@@ -1636,7 +1625,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" s="6">
         <v>2006</v>
@@ -1662,7 +1651,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" s="6">
         <v>2007</v>
@@ -1688,7 +1677,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" s="6">
         <v>2008</v>
@@ -1714,7 +1703,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" s="9">
         <v>2009</v>
@@ -1740,7 +1729,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" s="6">
         <v>2009</v>
@@ -1764,12 +1753,12 @@
         <v>99.1</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" s="6">
         <v>2010</v>
@@ -1795,7 +1784,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B23" s="6">
         <v>2011</v>
@@ -1821,7 +1810,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B24" s="6">
         <v>2012</v>
@@ -1847,7 +1836,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B25" s="6">
         <v>2004</v>
@@ -1873,7 +1862,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B26" s="6">
         <v>2005</v>
@@ -1899,7 +1888,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B27" s="6">
         <v>2006</v>
@@ -1925,7 +1914,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B28" s="6">
         <v>2007</v>
@@ -1951,7 +1940,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B29" s="6">
         <v>2008</v>
@@ -1977,7 +1966,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B30" s="9">
         <v>2009</v>
@@ -2003,7 +1992,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B31" s="6">
         <v>2009</v>
@@ -2027,12 +2016,12 @@
         <v>99</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B32" s="6">
         <v>2010</v>
@@ -2058,7 +2047,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B33" s="6">
         <v>2011</v>
@@ -2084,7 +2073,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B34" s="6">
         <v>2012</v>
@@ -2132,84 +2121,84 @@
   <sheetData>
     <row r="1" spans="1:25" ht="30">
       <c r="A1" s="28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="J1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="L1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="M1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="N1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="O1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="P1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="R1" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="S1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="T1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="U1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="V1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="W1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="X1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>39</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="33" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="15">
         <v>328005</v>
@@ -2286,7 +2275,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="15">
         <v>311258</v>
@@ -2398,60 +2387,60 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30">
       <c r="A1" s="36" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>94.4</v>
@@ -2504,7 +2493,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4">
         <v>93.1</v>
@@ -2557,7 +2546,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="37" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4">
         <v>44.900000000000006</v>
@@ -2610,7 +2599,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B5" s="23">
         <v>17.3</v>
@@ -2663,7 +2652,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="38" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B6" s="4">
         <v>48.9</v>
@@ -2716,7 +2705,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="37" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4">
         <v>42.6</v>
@@ -2791,904 +2780,417 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" ht="30">
+      <c r="A1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+      <c r="L1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="46" t="s">
+      <c r="M1" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="42"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
-    </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="s">
+      <c r="N1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="53"/>
-    </row>
-    <row r="9" spans="1:14" ht="40">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55" t="s">
+      <c r="O1" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="P1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="57">
+      <c r="Q1" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="43">
         <v>290719</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D2" s="44">
         <v>58.8</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E2" s="45">
         <v>280252</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F2" s="44">
         <v>60.6</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G2" s="46">
         <v>280409</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H2" s="44">
         <v>65.099999999999994</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I2" s="46">
         <v>269235</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J2" s="44">
         <v>68.2</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K2" s="44">
         <v>268750</v>
       </c>
-      <c r="L10" s="61">
+      <c r="L2" s="44">
         <v>63.1</v>
       </c>
-      <c r="M10" s="60">
+      <c r="M2" s="46">
         <v>273722</v>
       </c>
-      <c r="N10" s="61">
+      <c r="N2" s="44">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="57">
+      <c r="O2" s="43">
+        <v>297798</v>
+      </c>
+      <c r="P2" s="44">
+        <v>57.5</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>287370</v>
+      </c>
+      <c r="R2" s="44">
+        <v>59.2</v>
+      </c>
+      <c r="S2" s="46">
+        <v>287387</v>
+      </c>
+      <c r="T2" s="44">
+        <v>63.6</v>
+      </c>
+      <c r="U2" s="46">
+        <v>275865</v>
+      </c>
+      <c r="V2" s="44">
+        <v>66.7</v>
+      </c>
+      <c r="W2" s="44">
+        <v>275615</v>
+      </c>
+      <c r="X2" s="44">
+        <v>61.7</v>
+      </c>
+      <c r="Y2" s="46">
+        <v>281024</v>
+      </c>
+      <c r="Z2" s="44">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="43">
         <v>285094</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D3" s="44">
         <v>70.3</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E3" s="43">
         <v>276000</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F3" s="44">
         <v>70.900000000000006</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G3" s="46">
         <v>275855</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H3" s="44">
         <v>75.8</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I3" s="46">
         <v>266292</v>
       </c>
-      <c r="J11" s="61">
+      <c r="J3" s="44">
         <v>77.900000000000006</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K3" s="44">
         <v>263703</v>
       </c>
-      <c r="L11" s="61">
+      <c r="L3" s="44">
         <v>75.3</v>
       </c>
-      <c r="M11" s="60">
+      <c r="M3" s="46">
         <v>270146</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N3" s="44">
         <v>77.400000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="57">
-        <v>575813</v>
-      </c>
-      <c r="D12" s="58">
-        <v>64.5</v>
-      </c>
-      <c r="E12" s="57">
-        <v>556252</v>
-      </c>
-      <c r="F12" s="58">
-        <v>65.7</v>
-      </c>
-      <c r="G12" s="60">
-        <v>556264</v>
-      </c>
-      <c r="H12" s="61">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="I12" s="60">
-        <v>535527</v>
-      </c>
-      <c r="J12" s="61">
-        <v>73</v>
-      </c>
-      <c r="K12" s="62">
-        <v>532453</v>
-      </c>
-      <c r="L12" s="61">
-        <v>69.2</v>
-      </c>
-      <c r="M12" s="60">
-        <v>543868</v>
-      </c>
-      <c r="N12" s="61">
-        <v>71.599999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="61"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="O3" s="43">
+        <v>287920</v>
+      </c>
+      <c r="P3" s="44">
+        <v>69.7</v>
+      </c>
+      <c r="Q3" s="43">
+        <v>278722</v>
+      </c>
+      <c r="R3" s="44">
+        <v>70.3</v>
+      </c>
+      <c r="S3" s="46">
+        <v>278503</v>
+      </c>
+      <c r="T3" s="44">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="U3" s="46">
+        <v>268919</v>
+      </c>
+      <c r="V3" s="44">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="W3" s="44">
+        <v>266348</v>
+      </c>
+      <c r="X3" s="44">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="Y3" s="46">
+        <v>272859</v>
+      </c>
+      <c r="Z3" s="44">
+        <v>76.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="43">
         <v>291645</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D4" s="44">
         <v>55.1</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E4" s="45">
         <v>281561</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F4" s="44">
         <v>58.1</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G4" s="46">
         <v>281685</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H4" s="44">
         <v>61.8</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I4" s="46">
         <v>271372</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J4" s="44">
         <v>64.400000000000006</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K4" s="44">
         <v>275846</v>
       </c>
-      <c r="L14" s="61">
+      <c r="L4" s="44">
         <v>69.900000000000006</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M4" s="46">
         <v>275702</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N4" s="44">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="57">
+      <c r="O4" s="43">
+        <v>298652</v>
+      </c>
+      <c r="P4" s="44">
+        <v>53.9</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>288609</v>
+      </c>
+      <c r="R4" s="44">
+        <v>56.8</v>
+      </c>
+      <c r="S4" s="46">
+        <v>288585</v>
+      </c>
+      <c r="T4" s="44">
+        <v>60.5</v>
+      </c>
+      <c r="U4" s="46">
+        <v>277847</v>
+      </c>
+      <c r="V4" s="44">
+        <v>63.1</v>
+      </c>
+      <c r="W4" s="44">
+        <v>277244</v>
+      </c>
+      <c r="X4" s="44">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="Y4" s="46">
+        <v>282937</v>
+      </c>
+      <c r="Z4" s="44">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="43">
         <v>284998</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D5" s="44">
         <v>59.4</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E5" s="43">
         <v>276113</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F5" s="44">
         <v>59.6</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G5" s="46">
         <v>275966</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H5" s="44">
         <v>64.099999999999994</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I5" s="46">
         <v>265700</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J5" s="44">
         <v>67.3</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K5" s="44">
         <v>270434</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L5" s="44">
         <v>73.599999999999994</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M5" s="46">
         <v>270336</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N5" s="44">
         <v>73.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="66">
-        <v>576643</v>
-      </c>
-      <c r="D16" s="67">
-        <v>57.2</v>
-      </c>
-      <c r="E16" s="66">
-        <v>557674</v>
-      </c>
-      <c r="F16" s="67">
+      <c r="O5" s="43">
+        <v>287808</v>
+      </c>
+      <c r="P5" s="44">
         <v>58.8</v>
       </c>
-      <c r="G16" s="59">
-        <v>557651</v>
-      </c>
-      <c r="H16" s="68">
-        <v>62.9</v>
-      </c>
-      <c r="I16" s="60">
-        <v>537072</v>
-      </c>
-      <c r="J16" s="61">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="K16" s="62">
-        <v>533969</v>
-      </c>
-      <c r="L16" s="61">
-        <v>69.8</v>
-      </c>
-      <c r="M16" s="60">
-        <v>546038</v>
-      </c>
-      <c r="N16" s="61">
-        <v>71.900000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="70"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-    </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="53"/>
-    </row>
-    <row r="21" spans="1:14" ht="40">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" s="56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="57">
-        <v>297798</v>
-      </c>
-      <c r="D22" s="58">
-        <v>57.5</v>
-      </c>
-      <c r="E22" s="66">
-        <v>287370</v>
-      </c>
-      <c r="F22" s="58">
-        <v>59.2</v>
-      </c>
-      <c r="G22" s="60">
-        <v>287387</v>
-      </c>
-      <c r="H22" s="61">
-        <v>63.6</v>
-      </c>
-      <c r="I22" s="60">
-        <v>275865</v>
-      </c>
-      <c r="J22" s="61">
+      <c r="Q5" s="43">
+        <v>278822</v>
+      </c>
+      <c r="R5" s="44">
+        <v>59</v>
+      </c>
+      <c r="S5" s="46">
+        <v>278603</v>
+      </c>
+      <c r="T5" s="44">
+        <v>63.5</v>
+      </c>
+      <c r="U5" s="46">
+        <v>268308</v>
+      </c>
+      <c r="V5" s="44">
         <v>66.7</v>
       </c>
-      <c r="K22" s="62">
-        <v>275615</v>
-      </c>
-      <c r="L22" s="61">
-        <v>61.7</v>
-      </c>
-      <c r="M22" s="60">
-        <v>281024</v>
-      </c>
-      <c r="N22" s="58">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="57">
-        <v>287920</v>
-      </c>
-      <c r="D23" s="58">
-        <v>69.7</v>
-      </c>
-      <c r="E23" s="57">
-        <v>278722</v>
-      </c>
-      <c r="F23" s="58">
-        <v>70.3</v>
-      </c>
-      <c r="G23" s="60">
-        <v>278503</v>
-      </c>
-      <c r="H23" s="61">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="I23" s="60">
-        <v>268919</v>
-      </c>
-      <c r="J23" s="61">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="K23" s="62">
-        <v>266348</v>
-      </c>
-      <c r="L23" s="61">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="M23" s="60">
-        <v>272859</v>
-      </c>
-      <c r="N23" s="58">
-        <v>76.599999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="57">
-        <v>585718</v>
-      </c>
-      <c r="D24" s="58">
-        <v>63.5</v>
-      </c>
-      <c r="E24" s="57">
-        <v>566092</v>
-      </c>
-      <c r="F24" s="58">
-        <v>64.7</v>
-      </c>
-      <c r="G24" s="60">
-        <v>565890</v>
-      </c>
-      <c r="H24" s="61">
-        <v>69.3</v>
-      </c>
-      <c r="I24" s="60">
-        <v>544784</v>
-      </c>
-      <c r="J24" s="61">
-        <v>71.8</v>
-      </c>
-      <c r="K24" s="62">
-        <v>541963</v>
-      </c>
-      <c r="L24" s="61">
-        <v>68</v>
-      </c>
-      <c r="M24" s="60">
-        <v>553883</v>
-      </c>
-      <c r="N24" s="58">
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="58"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="57">
-        <v>298652</v>
-      </c>
-      <c r="D26" s="58">
-        <v>53.9</v>
-      </c>
-      <c r="E26" s="66">
-        <v>288609</v>
-      </c>
-      <c r="F26" s="58">
-        <v>56.8</v>
-      </c>
-      <c r="G26" s="60">
-        <v>288585</v>
-      </c>
-      <c r="H26" s="61">
-        <v>60.5</v>
-      </c>
-      <c r="I26" s="60">
-        <v>277847</v>
-      </c>
-      <c r="J26" s="61">
-        <v>63.1</v>
-      </c>
-      <c r="K26" s="62">
-        <v>277244</v>
-      </c>
-      <c r="L26" s="61">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="M26" s="60">
-        <v>282937</v>
-      </c>
-      <c r="N26" s="58">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="57">
-        <v>287808</v>
-      </c>
-      <c r="D27" s="58">
-        <v>58.8</v>
-      </c>
-      <c r="E27" s="57">
-        <v>278822</v>
-      </c>
-      <c r="F27" s="58">
-        <v>59</v>
-      </c>
-      <c r="G27" s="60">
-        <v>278603</v>
-      </c>
-      <c r="H27" s="61">
-        <v>63.5</v>
-      </c>
-      <c r="I27" s="60">
-        <v>268308</v>
-      </c>
-      <c r="J27" s="61">
-        <v>66.7</v>
-      </c>
-      <c r="K27" s="62">
+      <c r="W5" s="44">
         <v>266124</v>
       </c>
-      <c r="L27" s="61">
+      <c r="X5" s="44">
         <v>70.900000000000006</v>
       </c>
-      <c r="M27" s="60">
+      <c r="Y5" s="46">
         <v>273036</v>
       </c>
-      <c r="N27" s="58">
+      <c r="Z5" s="44">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="57">
-        <v>586460</v>
-      </c>
-      <c r="D28" s="58">
-        <v>56.3</v>
-      </c>
-      <c r="E28" s="57">
-        <v>567431</v>
-      </c>
-      <c r="F28" s="58">
-        <v>57.9</v>
-      </c>
-      <c r="G28" s="60">
-        <v>567188</v>
-      </c>
-      <c r="H28" s="61">
-        <v>62</v>
-      </c>
-      <c r="I28" s="60">
-        <v>546155</v>
-      </c>
-      <c r="J28" s="61">
-        <v>64.8</v>
-      </c>
-      <c r="K28" s="62">
-        <v>543368</v>
-      </c>
-      <c r="L28" s="61">
-        <v>68.7</v>
-      </c>
-      <c r="M28" s="60">
-        <v>555973</v>
-      </c>
-      <c r="N28" s="58">
-        <v>70.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="70"/>
-    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/processed/01_stage_1/SFR01_2014_NT.xlsx
+++ b/data/processed/01_stage_1/SFR01_2014_NT.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="0" windowWidth="21880" windowHeight="17480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="9960" yWindow="0" windowWidth="18740" windowHeight="17480" tabRatio="692" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="table_1a.csv" sheetId="1" r:id="rId1"/>
     <sheet name="table_1b_by_gender.csv" sheetId="2" r:id="rId2"/>
     <sheet name="table_1b_by_subject.csv" sheetId="3" r:id="rId3"/>
     <sheet name="table_1c.csv" sheetId="4" r:id="rId4"/>
+    <sheet name="table_1d.csv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>15 year olds</t>
   </si>
@@ -241,6 +242,102 @@
   </si>
   <si>
     <t>perc_progress_all_2012</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 1d: Percentage of pupils making expected progress</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in English and mathematics between key stage 2 and key stage 4 by key stage 2 attainment level and key stage 4 outcome</t>
+    </r>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>No valid KS2 level</t>
+  </si>
+  <si>
+    <t>mainstream_as</t>
+  </si>
+  <si>
+    <t>mainstream_a</t>
+  </si>
+  <si>
+    <t>mainstream_b</t>
+  </si>
+  <si>
+    <t>mainstream_c</t>
+  </si>
+  <si>
+    <t>mainstream_d</t>
+  </si>
+  <si>
+    <t>mainstream_e</t>
+  </si>
+  <si>
+    <t>mainstream_f</t>
+  </si>
+  <si>
+    <t>mainstream_g</t>
+  </si>
+  <si>
+    <t>mainstream_u</t>
+  </si>
+  <si>
+    <t>mainstream_perc_expected_progress</t>
+  </si>
+  <si>
+    <t>all_as</t>
+  </si>
+  <si>
+    <t>all_a</t>
+  </si>
+  <si>
+    <t>all_b</t>
+  </si>
+  <si>
+    <t>all_c</t>
+  </si>
+  <si>
+    <t>all_d</t>
+  </si>
+  <si>
+    <t>all_e</t>
+  </si>
+  <si>
+    <t>all_f</t>
+  </si>
+  <si>
+    <t>all_g</t>
+  </si>
+  <si>
+    <t>all_u</t>
+  </si>
+  <si>
+    <t>all_perc_expected_progress</t>
+  </si>
+  <si>
+    <t>key_stage_2_attainment_level</t>
   </si>
 </sst>
 </file>
@@ -250,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +357,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -308,7 +418,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +431,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -368,308 +490,422 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="186">
+  <cellStyleXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="186">
+  <cellStyles count="214">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -762,6 +998,20 @@
     <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -854,6 +1104,20 @@
     <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="1"/>
   </cellStyles>
@@ -2782,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2795,76 +3059,76 @@
       <c r="B1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="Q1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="S1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="U1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="41" t="s">
+      <c r="Y1" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2875,76 +3139,76 @@
       <c r="B2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="44">
         <v>290719</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="45">
         <v>58.8</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="46">
         <v>280252</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="45">
         <v>60.6</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="47">
         <v>280409</v>
       </c>
-      <c r="H2" s="44">
+      <c r="H2" s="45">
         <v>65.099999999999994</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="47">
         <v>269235</v>
       </c>
-      <c r="J2" s="44">
+      <c r="J2" s="45">
         <v>68.2</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="45">
         <v>268750</v>
       </c>
-      <c r="L2" s="44">
+      <c r="L2" s="45">
         <v>63.1</v>
       </c>
-      <c r="M2" s="46">
+      <c r="M2" s="47">
         <v>273722</v>
       </c>
-      <c r="N2" s="44">
+      <c r="N2" s="45">
         <v>65.900000000000006</v>
       </c>
-      <c r="O2" s="43">
+      <c r="O2" s="44">
         <v>297798</v>
       </c>
-      <c r="P2" s="44">
+      <c r="P2" s="45">
         <v>57.5</v>
       </c>
-      <c r="Q2" s="47">
+      <c r="Q2" s="48">
         <v>287370</v>
       </c>
-      <c r="R2" s="44">
+      <c r="R2" s="45">
         <v>59.2</v>
       </c>
-      <c r="S2" s="46">
+      <c r="S2" s="47">
         <v>287387</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="45">
         <v>63.6</v>
       </c>
-      <c r="U2" s="46">
+      <c r="U2" s="47">
         <v>275865</v>
       </c>
-      <c r="V2" s="44">
+      <c r="V2" s="45">
         <v>66.7</v>
       </c>
-      <c r="W2" s="44">
+      <c r="W2" s="45">
         <v>275615</v>
       </c>
-      <c r="X2" s="44">
+      <c r="X2" s="45">
         <v>61.7</v>
       </c>
-      <c r="Y2" s="46">
+      <c r="Y2" s="47">
         <v>281024</v>
       </c>
-      <c r="Z2" s="44">
+      <c r="Z2" s="45">
         <v>64.3</v>
       </c>
     </row>
@@ -2955,76 +3219,76 @@
       <c r="B3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>285094</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="45">
         <v>70.3</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="44">
         <v>276000</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="45">
         <v>70.900000000000006</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="47">
         <v>275855</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="45">
         <v>75.8</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="47">
         <v>266292</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="45">
         <v>77.900000000000006</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="45">
         <v>263703</v>
       </c>
-      <c r="L3" s="44">
+      <c r="L3" s="45">
         <v>75.3</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="47">
         <v>270146</v>
       </c>
-      <c r="N3" s="44">
+      <c r="N3" s="45">
         <v>77.400000000000006</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="44">
         <v>287920</v>
       </c>
-      <c r="P3" s="44">
+      <c r="P3" s="45">
         <v>69.7</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="44">
         <v>278722</v>
       </c>
-      <c r="R3" s="44">
+      <c r="R3" s="45">
         <v>70.3</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3" s="47">
         <v>278503</v>
       </c>
-      <c r="T3" s="44">
+      <c r="T3" s="45">
         <v>75.099999999999994</v>
       </c>
-      <c r="U3" s="46">
+      <c r="U3" s="47">
         <v>268919</v>
       </c>
-      <c r="V3" s="44">
+      <c r="V3" s="45">
         <v>77.099999999999994</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="45">
         <v>266348</v>
       </c>
-      <c r="X3" s="44">
+      <c r="X3" s="45">
         <v>74.599999999999994</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3" s="47">
         <v>272859</v>
       </c>
-      <c r="Z3" s="44">
+      <c r="Z3" s="45">
         <v>76.599999999999994</v>
       </c>
     </row>
@@ -3035,76 +3299,76 @@
       <c r="B4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="44">
         <v>291645</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="45">
         <v>55.1</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="46">
         <v>281561</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="45">
         <v>58.1</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="47">
         <v>281685</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="45">
         <v>61.8</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="47">
         <v>271372</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="45">
         <v>64.400000000000006</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="45">
         <v>275846</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="45">
         <v>69.900000000000006</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="47">
         <v>275702</v>
       </c>
-      <c r="N4" s="44">
+      <c r="N4" s="45">
         <v>70.099999999999994</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="44">
         <v>298652</v>
       </c>
-      <c r="P4" s="44">
+      <c r="P4" s="45">
         <v>53.9</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="48">
         <v>288609</v>
       </c>
-      <c r="R4" s="44">
+      <c r="R4" s="45">
         <v>56.8</v>
       </c>
-      <c r="S4" s="46">
+      <c r="S4" s="47">
         <v>288585</v>
       </c>
-      <c r="T4" s="44">
+      <c r="T4" s="45">
         <v>60.5</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4" s="47">
         <v>277847</v>
       </c>
-      <c r="V4" s="44">
+      <c r="V4" s="45">
         <v>63.1</v>
       </c>
-      <c r="W4" s="44">
+      <c r="W4" s="45">
         <v>277244</v>
       </c>
-      <c r="X4" s="44">
+      <c r="X4" s="45">
         <v>66.599999999999994</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4" s="47">
         <v>282937</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="Z4" s="45">
         <v>68.400000000000006</v>
       </c>
     </row>
@@ -3115,76 +3379,76 @@
       <c r="B5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="44">
         <v>284998</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="45">
         <v>59.4</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="44">
         <v>276113</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="45">
         <v>59.6</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="47">
         <v>275966</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="45">
         <v>64.099999999999994</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="47">
         <v>265700</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="45">
         <v>67.3</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="45">
         <v>270434</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="45">
         <v>73.599999999999994</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="47">
         <v>270336</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="45">
         <v>73.8</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="44">
         <v>287808</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="45">
         <v>58.8</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="44">
         <v>278822</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="45">
         <v>59</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="47">
         <v>278603</v>
       </c>
-      <c r="T5" s="44">
+      <c r="T5" s="45">
         <v>63.5</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="47">
         <v>268308</v>
       </c>
-      <c r="V5" s="44">
+      <c r="V5" s="45">
         <v>66.7</v>
       </c>
-      <c r="W5" s="44">
+      <c r="W5" s="45">
         <v>266124</v>
       </c>
-      <c r="X5" s="44">
+      <c r="X5" s="45">
         <v>70.900000000000006</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5" s="47">
         <v>273036</v>
       </c>
-      <c r="Z5" s="44">
+      <c r="Z5" s="45">
         <v>73.099999999999994</v>
       </c>
     </row>
@@ -3197,4 +3461,1064 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:22" s="66" customFormat="1" ht="48">
+      <c r="A2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1">
+      <c r="A3" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="54">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="54">
+        <v>7</v>
+      </c>
+      <c r="H3" s="54">
+        <v>6</v>
+      </c>
+      <c r="I3" s="54">
+        <v>14</v>
+      </c>
+      <c r="J3" s="54">
+        <v>3</v>
+      </c>
+      <c r="K3" s="55">
+        <v>20</v>
+      </c>
+      <c r="L3" s="56">
+        <v>62.3</v>
+      </c>
+      <c r="M3" s="54">
+        <v>0</v>
+      </c>
+      <c r="N3" s="54">
+        <v>0</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>7</v>
+      </c>
+      <c r="R3" s="54">
+        <v>6</v>
+      </c>
+      <c r="S3" s="54">
+        <v>14</v>
+      </c>
+      <c r="T3" s="54">
+        <v>5</v>
+      </c>
+      <c r="U3" s="55">
+        <v>1135</v>
+      </c>
+      <c r="V3" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="50">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54">
+        <v>0</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
+        <v>14</v>
+      </c>
+      <c r="F4" s="54">
+        <v>95</v>
+      </c>
+      <c r="G4" s="54">
+        <v>207</v>
+      </c>
+      <c r="H4" s="54">
+        <v>475</v>
+      </c>
+      <c r="I4" s="54">
+        <v>516</v>
+      </c>
+      <c r="J4" s="55">
+        <v>263</v>
+      </c>
+      <c r="K4" s="55">
+        <v>460</v>
+      </c>
+      <c r="L4" s="56">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="M4" s="54">
+        <v>0</v>
+      </c>
+      <c r="N4" s="54">
+        <v>0</v>
+      </c>
+      <c r="O4" s="54">
+        <v>14</v>
+      </c>
+      <c r="P4" s="54">
+        <v>95</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>214</v>
+      </c>
+      <c r="R4" s="54">
+        <v>489</v>
+      </c>
+      <c r="S4" s="54">
+        <v>559</v>
+      </c>
+      <c r="T4" s="55">
+        <v>281</v>
+      </c>
+      <c r="U4" s="55">
+        <v>1990</v>
+      </c>
+      <c r="V4" s="55">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="50">
+        <v>2</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="54">
+        <v>27</v>
+      </c>
+      <c r="E5" s="54">
+        <v>125</v>
+      </c>
+      <c r="F5" s="54">
+        <v>1091</v>
+      </c>
+      <c r="G5" s="54">
+        <v>2659</v>
+      </c>
+      <c r="H5" s="54">
+        <v>5169</v>
+      </c>
+      <c r="I5" s="55">
+        <v>4251</v>
+      </c>
+      <c r="J5" s="55">
+        <v>1353</v>
+      </c>
+      <c r="K5" s="55">
+        <v>1894</v>
+      </c>
+      <c r="L5" s="56">
+        <v>54.7</v>
+      </c>
+      <c r="M5" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="54">
+        <v>27</v>
+      </c>
+      <c r="O5" s="54">
+        <v>129</v>
+      </c>
+      <c r="P5" s="54">
+        <v>1098</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>2692</v>
+      </c>
+      <c r="R5" s="54">
+        <v>5295</v>
+      </c>
+      <c r="S5" s="55">
+        <v>4421</v>
+      </c>
+      <c r="T5" s="55">
+        <v>1442</v>
+      </c>
+      <c r="U5" s="55">
+        <v>3718</v>
+      </c>
+      <c r="V5" s="55">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="50">
+        <v>3</v>
+      </c>
+      <c r="C6" s="54">
+        <v>5</v>
+      </c>
+      <c r="D6" s="54">
+        <v>110</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1327</v>
+      </c>
+      <c r="F6" s="54">
+        <v>13282</v>
+      </c>
+      <c r="G6" s="54">
+        <v>24209</v>
+      </c>
+      <c r="H6" s="55">
+        <v>18407</v>
+      </c>
+      <c r="I6" s="55">
+        <v>6562</v>
+      </c>
+      <c r="J6" s="55">
+        <v>1523</v>
+      </c>
+      <c r="K6" s="55">
+        <v>3114</v>
+      </c>
+      <c r="L6" s="56">
+        <v>56.8</v>
+      </c>
+      <c r="M6" s="54">
+        <v>5</v>
+      </c>
+      <c r="N6" s="54">
+        <v>110</v>
+      </c>
+      <c r="O6" s="54">
+        <v>1328</v>
+      </c>
+      <c r="P6" s="54">
+        <v>13297</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>24266</v>
+      </c>
+      <c r="R6" s="55">
+        <v>18536</v>
+      </c>
+      <c r="S6" s="55">
+        <v>6682</v>
+      </c>
+      <c r="T6" s="55">
+        <v>1578</v>
+      </c>
+      <c r="U6" s="55">
+        <v>3725</v>
+      </c>
+      <c r="V6" s="55">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="50">
+        <v>4</v>
+      </c>
+      <c r="C7" s="54">
+        <v>1326</v>
+      </c>
+      <c r="D7" s="54">
+        <v>14862</v>
+      </c>
+      <c r="E7" s="54">
+        <v>62581</v>
+      </c>
+      <c r="F7" s="54">
+        <v>126535</v>
+      </c>
+      <c r="G7" s="55">
+        <v>58653</v>
+      </c>
+      <c r="H7" s="55">
+        <v>14358</v>
+      </c>
+      <c r="I7" s="55">
+        <v>3220</v>
+      </c>
+      <c r="J7" s="55">
+        <v>952</v>
+      </c>
+      <c r="K7" s="55">
+        <v>4089</v>
+      </c>
+      <c r="L7" s="56">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="M7" s="54">
+        <v>1326</v>
+      </c>
+      <c r="N7" s="54">
+        <v>14865</v>
+      </c>
+      <c r="O7" s="54">
+        <v>62594</v>
+      </c>
+      <c r="P7" s="54">
+        <v>126576</v>
+      </c>
+      <c r="Q7" s="55">
+        <v>58726</v>
+      </c>
+      <c r="R7" s="55">
+        <v>14464</v>
+      </c>
+      <c r="S7" s="55">
+        <v>3278</v>
+      </c>
+      <c r="T7" s="55">
+        <v>977</v>
+      </c>
+      <c r="U7" s="55">
+        <v>4392</v>
+      </c>
+      <c r="V7" s="55">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="50">
+        <v>5</v>
+      </c>
+      <c r="C8" s="54">
+        <v>18367</v>
+      </c>
+      <c r="D8" s="54">
+        <v>51231</v>
+      </c>
+      <c r="E8" s="54">
+        <v>58230</v>
+      </c>
+      <c r="F8" s="55">
+        <v>27536</v>
+      </c>
+      <c r="G8" s="55">
+        <v>3620</v>
+      </c>
+      <c r="H8" s="55">
+        <v>432</v>
+      </c>
+      <c r="I8" s="55">
+        <v>135</v>
+      </c>
+      <c r="J8" s="55">
+        <v>60</v>
+      </c>
+      <c r="K8" s="55">
+        <v>875</v>
+      </c>
+      <c r="L8" s="56">
+        <v>79.7</v>
+      </c>
+      <c r="M8" s="54">
+        <v>18367</v>
+      </c>
+      <c r="N8" s="54">
+        <v>51233</v>
+      </c>
+      <c r="O8" s="54">
+        <v>58235</v>
+      </c>
+      <c r="P8" s="55">
+        <v>27545</v>
+      </c>
+      <c r="Q8" s="55">
+        <v>3630</v>
+      </c>
+      <c r="R8" s="55">
+        <v>436</v>
+      </c>
+      <c r="S8" s="55">
+        <v>138</v>
+      </c>
+      <c r="T8" s="55">
+        <v>61</v>
+      </c>
+      <c r="U8" s="55">
+        <v>892</v>
+      </c>
+      <c r="V8" s="55">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20">
+      <c r="A9" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="54">
+        <v>857</v>
+      </c>
+      <c r="D9" s="54">
+        <v>2194</v>
+      </c>
+      <c r="E9" s="54">
+        <v>3887</v>
+      </c>
+      <c r="F9" s="57">
+        <v>6266</v>
+      </c>
+      <c r="G9" s="57">
+        <v>4568</v>
+      </c>
+      <c r="H9" s="57">
+        <v>3365</v>
+      </c>
+      <c r="I9" s="57">
+        <v>2104</v>
+      </c>
+      <c r="J9" s="57">
+        <v>958</v>
+      </c>
+      <c r="K9" s="55">
+        <v>2676</v>
+      </c>
+      <c r="L9" s="56">
+        <v>72.2</v>
+      </c>
+      <c r="M9" s="54">
+        <v>857</v>
+      </c>
+      <c r="N9" s="54">
+        <v>2195</v>
+      </c>
+      <c r="O9" s="54">
+        <v>3888</v>
+      </c>
+      <c r="P9" s="57">
+        <v>6276</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>4589</v>
+      </c>
+      <c r="R9" s="57">
+        <v>3418</v>
+      </c>
+      <c r="S9" s="57">
+        <v>2174</v>
+      </c>
+      <c r="T9" s="57">
+        <v>994</v>
+      </c>
+      <c r="U9" s="55">
+        <v>6046</v>
+      </c>
+      <c r="V9" s="55">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1">
+      <c r="A10" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="54">
+        <v>0</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="54">
+        <v>6</v>
+      </c>
+      <c r="J10" s="54">
+        <v>7</v>
+      </c>
+      <c r="K10" s="55">
+        <v>24</v>
+      </c>
+      <c r="L10" s="58">
+        <v>45.5</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="59">
+        <v>0</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="59">
+        <v>7</v>
+      </c>
+      <c r="T10" s="59">
+        <v>8</v>
+      </c>
+      <c r="U10" s="60">
+        <v>1018</v>
+      </c>
+      <c r="V10" s="60">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="52">
+        <v>1</v>
+      </c>
+      <c r="C11" s="54">
+        <v>0</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="54">
+        <v>42</v>
+      </c>
+      <c r="G11" s="54">
+        <v>57</v>
+      </c>
+      <c r="H11" s="54">
+        <v>102</v>
+      </c>
+      <c r="I11" s="54">
+        <v>190</v>
+      </c>
+      <c r="J11" s="55">
+        <v>416</v>
+      </c>
+      <c r="K11" s="55">
+        <v>752</v>
+      </c>
+      <c r="L11" s="58">
+        <v>25.1</v>
+      </c>
+      <c r="M11" s="54">
+        <v>0</v>
+      </c>
+      <c r="N11" s="54">
+        <v>0</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="54">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>61</v>
+      </c>
+      <c r="R11" s="54">
+        <v>116</v>
+      </c>
+      <c r="S11" s="54">
+        <v>217</v>
+      </c>
+      <c r="T11" s="55">
+        <v>464</v>
+      </c>
+      <c r="U11" s="55">
+        <v>2034</v>
+      </c>
+      <c r="V11" s="55">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="52">
+        <v>2</v>
+      </c>
+      <c r="C12" s="54">
+        <v>5</v>
+      </c>
+      <c r="D12" s="54">
+        <v>11</v>
+      </c>
+      <c r="E12" s="54">
+        <v>98</v>
+      </c>
+      <c r="F12" s="54">
+        <v>611</v>
+      </c>
+      <c r="G12" s="54">
+        <v>1023</v>
+      </c>
+      <c r="H12" s="54">
+        <v>1866</v>
+      </c>
+      <c r="I12" s="55">
+        <v>4155</v>
+      </c>
+      <c r="J12" s="55">
+        <v>6130</v>
+      </c>
+      <c r="K12" s="55">
+        <v>3878</v>
+      </c>
+      <c r="L12" s="58">
+        <v>20.3</v>
+      </c>
+      <c r="M12" s="54">
+        <v>5</v>
+      </c>
+      <c r="N12" s="54">
+        <v>11</v>
+      </c>
+      <c r="O12" s="54">
+        <v>98</v>
+      </c>
+      <c r="P12" s="54">
+        <v>625</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>1045</v>
+      </c>
+      <c r="R12" s="54">
+        <v>1940</v>
+      </c>
+      <c r="S12" s="55">
+        <v>4323</v>
+      </c>
+      <c r="T12" s="55">
+        <v>6376</v>
+      </c>
+      <c r="U12" s="55">
+        <v>5623</v>
+      </c>
+      <c r="V12" s="55">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="52">
+        <v>3</v>
+      </c>
+      <c r="C13" s="54">
+        <v>9</v>
+      </c>
+      <c r="D13" s="54">
+        <v>166</v>
+      </c>
+      <c r="E13" s="54">
+        <v>1454</v>
+      </c>
+      <c r="F13" s="54">
+        <v>18202</v>
+      </c>
+      <c r="G13" s="54">
+        <v>17869</v>
+      </c>
+      <c r="H13" s="55">
+        <v>17731</v>
+      </c>
+      <c r="I13" s="55">
+        <v>15940</v>
+      </c>
+      <c r="J13" s="55">
+        <v>8286</v>
+      </c>
+      <c r="K13" s="55">
+        <v>3379</v>
+      </c>
+      <c r="L13" s="58">
+        <v>45.4</v>
+      </c>
+      <c r="M13" s="54">
+        <v>9</v>
+      </c>
+      <c r="N13" s="54">
+        <v>168</v>
+      </c>
+      <c r="O13" s="54">
+        <v>1454</v>
+      </c>
+      <c r="P13" s="54">
+        <v>18245</v>
+      </c>
+      <c r="Q13" s="54">
+        <v>17938</v>
+      </c>
+      <c r="R13" s="55">
+        <v>17859</v>
+      </c>
+      <c r="S13" s="55">
+        <v>16145</v>
+      </c>
+      <c r="T13" s="55">
+        <v>8429</v>
+      </c>
+      <c r="U13" s="55">
+        <v>3882</v>
+      </c>
+      <c r="V13" s="55">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="52">
+        <v>4</v>
+      </c>
+      <c r="C14" s="54">
+        <v>1730</v>
+      </c>
+      <c r="D14" s="54">
+        <v>13891</v>
+      </c>
+      <c r="E14" s="54">
+        <v>52221</v>
+      </c>
+      <c r="F14" s="54">
+        <v>135375</v>
+      </c>
+      <c r="G14" s="55">
+        <v>34820</v>
+      </c>
+      <c r="H14" s="55">
+        <v>13753</v>
+      </c>
+      <c r="I14" s="55">
+        <v>6060</v>
+      </c>
+      <c r="J14" s="55">
+        <v>2031</v>
+      </c>
+      <c r="K14" s="55">
+        <v>2363</v>
+      </c>
+      <c r="L14" s="58">
+        <v>77.5</v>
+      </c>
+      <c r="M14" s="54">
+        <v>1733</v>
+      </c>
+      <c r="N14" s="54">
+        <v>13892</v>
+      </c>
+      <c r="O14" s="54">
+        <v>52234</v>
+      </c>
+      <c r="P14" s="54">
+        <v>135485</v>
+      </c>
+      <c r="Q14" s="55">
+        <v>34950</v>
+      </c>
+      <c r="R14" s="55">
+        <v>13872</v>
+      </c>
+      <c r="S14" s="55">
+        <v>6177</v>
+      </c>
+      <c r="T14" s="55">
+        <v>2075</v>
+      </c>
+      <c r="U14" s="55">
+        <v>2616</v>
+      </c>
+      <c r="V14" s="55">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="52">
+        <v>5</v>
+      </c>
+      <c r="C15" s="54">
+        <v>33460</v>
+      </c>
+      <c r="D15" s="54">
+        <v>52561</v>
+      </c>
+      <c r="E15" s="54">
+        <v>52768</v>
+      </c>
+      <c r="F15" s="55">
+        <v>28473</v>
+      </c>
+      <c r="G15" s="55">
+        <v>1802</v>
+      </c>
+      <c r="H15" s="55">
+        <v>303</v>
+      </c>
+      <c r="I15" s="55">
+        <v>103</v>
+      </c>
+      <c r="J15" s="55">
+        <v>48</v>
+      </c>
+      <c r="K15" s="55">
+        <v>348</v>
+      </c>
+      <c r="L15" s="58">
+        <v>81.7</v>
+      </c>
+      <c r="M15" s="54">
+        <v>33463</v>
+      </c>
+      <c r="N15" s="54">
+        <v>52568</v>
+      </c>
+      <c r="O15" s="54">
+        <v>52778</v>
+      </c>
+      <c r="P15" s="55">
+        <v>28505</v>
+      </c>
+      <c r="Q15" s="55">
+        <v>1812</v>
+      </c>
+      <c r="R15" s="55">
+        <v>315</v>
+      </c>
+      <c r="S15" s="55">
+        <v>107</v>
+      </c>
+      <c r="T15" s="55">
+        <v>51</v>
+      </c>
+      <c r="U15" s="55">
+        <v>371</v>
+      </c>
+      <c r="V15" s="55">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20">
+      <c r="A16" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="61">
+        <v>1956</v>
+      </c>
+      <c r="D16" s="61">
+        <v>2874</v>
+      </c>
+      <c r="E16" s="61">
+        <v>4261</v>
+      </c>
+      <c r="F16" s="62">
+        <v>6875</v>
+      </c>
+      <c r="G16" s="62">
+        <v>2607</v>
+      </c>
+      <c r="H16" s="62">
+        <v>1830</v>
+      </c>
+      <c r="I16" s="62">
+        <v>1797</v>
+      </c>
+      <c r="J16" s="62">
+        <v>1982</v>
+      </c>
+      <c r="K16" s="63">
+        <v>2417</v>
+      </c>
+      <c r="L16" s="64">
+        <v>79</v>
+      </c>
+      <c r="M16" s="61">
+        <v>1956</v>
+      </c>
+      <c r="N16" s="61">
+        <v>2875</v>
+      </c>
+      <c r="O16" s="61">
+        <v>4263</v>
+      </c>
+      <c r="P16" s="62">
+        <v>6893</v>
+      </c>
+      <c r="Q16" s="62">
+        <v>2626</v>
+      </c>
+      <c r="R16" s="62">
+        <v>1882</v>
+      </c>
+      <c r="S16" s="62">
+        <v>1875</v>
+      </c>
+      <c r="T16" s="62">
+        <v>2085</v>
+      </c>
+      <c r="U16" s="63">
+        <v>5718</v>
+      </c>
+      <c r="V16" s="63">
+        <v>61.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>